--- a/ST1.xlsx
+++ b/ST1.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Greedy" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="AGEU" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AGEU90000" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AGEU10Ej" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AGEU90000" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Random450" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AGEU450" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="97">
   <si>
     <t xml:space="preserve">F01</t>
   </si>
@@ -328,6 +331,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -349,6 +353,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -426,594 +431,594 @@
   <dimension ref="A1:CS88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:CS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>183036</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>55670</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>185368</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>225179</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>229182</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>53051</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>7185</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>44000</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>232581</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>18874</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>13051</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>55170</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>2284</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>48039</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>61331</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>30848</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <v>9820</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>13779</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>30376</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>82791</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>74142</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>102937</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>23444</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>103428</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>42645</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
         <v>10556</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>39996</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <v>41726</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
         <v>57989</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2" s="1" t="n">
         <v>137774</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2" s="1" t="n">
         <v>188657</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="1" t="n">
         <v>81896</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="1" t="n">
         <v>43927</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>59475</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>16700</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>138069</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2" s="1" t="n">
         <v>98550</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2" s="1" t="n">
         <v>12738</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2" s="1" t="n">
         <v>89006</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2" s="1" t="n">
         <v>244403</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2" s="1" t="n">
         <v>935088</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2" s="1" t="n">
         <v>152812</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>11888</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2" s="1" t="n">
         <v>37130</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>738694</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>16430</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
         <v>614921</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2" s="1" t="n">
         <v>732328</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>533053</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>22618</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2" s="1" t="n">
         <v>190807</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2" s="1" t="n">
         <v>236508</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2" s="1" t="n">
         <v>212997</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2" s="1" t="n">
         <v>167116</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="1" t="n">
         <v>52104</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="1" t="n">
         <v>30817</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="1" t="n">
         <v>115309</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="1" t="n">
         <v>24757</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="1" t="n">
         <v>224717</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2" s="1" t="n">
         <v>332563</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2" s="1" t="n">
         <v>150637</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2" s="1" t="n">
         <v>149991</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2" s="1" t="n">
         <v>154218</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>478002</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2" s="1" t="n">
         <v>415901</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2" s="1" t="n">
         <v>158292</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2" s="1" t="n">
         <v>265202</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2" s="1" t="n">
         <v>51805</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2" s="1" t="n">
         <v>69692</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2" s="1" t="n">
         <v>359165</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2" s="1" t="n">
         <v>189515</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2" s="1" t="n">
         <v>21699</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2" s="1" t="n">
         <v>66396</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2" s="1" t="n">
         <v>62282</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2" s="1" t="n">
         <v>133007</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2" s="1" t="n">
         <v>161802</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2" s="1" t="n">
         <v>557167</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2" s="1" t="n">
         <v>452845</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2" s="1" t="n">
         <v>315211</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2" s="1" t="n">
         <v>8044</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2" s="1" t="n">
         <v>195386</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2" s="1" t="n">
         <v>392775</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2" s="1" t="n">
         <v>3788</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2" s="1" t="n">
         <v>173679</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2" s="1" t="n">
         <v>451788</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2" s="1" t="n">
         <v>2859</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2" s="1" t="n">
         <v>155665</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2" s="1" t="n">
         <v>957753</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2" s="1" t="n">
         <v>337094</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2" s="1" t="n">
         <v>34618</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2" s="1" t="n">
         <v>782813</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2" s="1" t="n">
         <v>144093</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2" s="1" t="n">
         <v>587075</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2" s="1" t="n">
         <v>602663</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2" s="1" t="n">
         <v>11736</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2" s="1" t="n">
         <v>634598</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2" s="1" t="n">
         <v>628045</v>
       </c>
     </row>
@@ -1039,601 +1044,601 @@
   <dimension ref="A1:CS2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A2:CS2 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>191578</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>81760</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>189255</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>225434</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>229660</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>74074</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>10108</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>62251</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>231357</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>24748</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>18481</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>56474</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>3535</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>49840</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>61494</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>36009</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <v>14282</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>20083</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>35169</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>88111</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>82737</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>104389</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>33095</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>105876</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>56388</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
         <v>16021</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>52646</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <v>53790</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
         <v>68693</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2" s="1" t="n">
         <v>142984</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2" s="1" t="n">
         <v>188521</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="1" t="n">
         <v>93658</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="1" t="n">
         <v>62046</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>71226</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>27233</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>144663</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2" s="1" t="n">
         <v>110267</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2" s="1" t="n">
         <v>19412</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2" s="1" t="n">
         <v>102663</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2" s="1" t="n">
         <v>376316</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2" s="1" t="n">
         <v>935700</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2" s="1" t="n">
         <v>301759</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>28867</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2" s="1" t="n">
         <v>100466</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>785450</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>39318</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
         <v>698701</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2" s="1" t="n">
         <v>779797</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>627121</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>48241</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2" s="1" t="n">
         <v>204298</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2" s="1" t="n">
         <v>239558</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2" s="1" t="n">
         <v>222361</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2" s="1" t="n">
         <v>186275</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="1" t="n">
         <v>79856</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="1" t="n">
         <v>58857</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="1" t="n">
         <v>149263</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="1" t="n">
         <v>49154</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="1" t="n">
         <v>284391</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2" s="1" t="n">
         <v>371425</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2" s="1" t="n">
         <v>209602</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2" s="1" t="n">
         <v>226313</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2" s="1" t="n">
         <v>227827</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>479004</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2" s="1" t="n">
         <v>425341</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2" s="1" t="n">
         <v>219673</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2" s="1" t="n">
         <v>317584</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2" s="1" t="n">
         <v>103075</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2" s="1" t="n">
         <v>141435</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2" s="1" t="n">
         <v>440355</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2" s="1" t="n">
         <v>284104</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2" s="1" t="n">
         <v>60698</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2" s="1" t="n">
         <v>127858</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2" s="1" t="n">
         <v>137690</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2" s="1" t="n">
         <v>229475</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2" s="1" t="n">
         <v>269314</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2" s="1" t="n">
         <v>600659</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2" s="1" t="n">
         <v>514622</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2" s="1" t="n">
         <v>382438</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2" s="1" t="n">
         <v>28980</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2" s="1" t="n">
         <v>281216</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2" s="1" t="n">
         <v>442639</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2" s="1" t="n">
         <v>14556</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2" s="1" t="n">
         <v>269671</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2" s="1" t="n">
         <v>483017</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2" s="1" t="n">
         <v>9281</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2" s="1" t="n">
         <v>249736</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2" s="1" t="n">
         <v>990620</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2" s="1" t="n">
         <v>512384</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2" s="1" t="n">
         <v>105543</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2" s="1" t="n">
         <v>871234</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2" s="1" t="n">
         <v>306634</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2" s="1" t="n">
         <v>726221</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2" s="1" t="n">
         <v>732880</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2" s="1" t="n">
         <v>43456</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2" s="1" t="n">
         <v>765600</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2" s="1" t="n">
         <v>760565</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -1648,602 +1653,602 @@
   </sheetPr>
   <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:CS2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="0" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="0" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="0" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="0" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="0" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="0" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="0" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="0" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="0" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="0" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="0" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="0" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="0" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="0" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="0" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="0" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="0" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="0" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="0" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="0" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="0" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="0" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="0" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="0" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="0" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="0" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="0" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="0" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="0" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="0" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="0" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="0" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="0" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="0" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>193262</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>81961</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>190257</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>225434</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>230009</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>74168</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>10153</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>62484</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>232754</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>24836</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>18369</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>56525</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>3702</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>50151</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>61494</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="1" t="n">
         <v>36159</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2" s="1" t="n">
         <v>14657</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="1" t="n">
         <v>20307</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2" s="1" t="n">
         <v>35333</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>88519</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2" s="1" t="n">
         <v>83742</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2" s="1" t="n">
         <v>104781</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>33856</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>105879</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2" s="1" t="n">
         <v>56452</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2" s="1" t="n">
         <v>16080</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2" s="1" t="n">
         <v>52487</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2" s="1" t="n">
         <v>54246</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2" s="1" t="n">
         <v>68480</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2" s="1" t="n">
         <v>143740</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2" s="1" t="n">
         <v>188657</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2" s="1" t="n">
         <v>94955</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2" s="1" t="n">
         <v>61066</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AH2" s="1" t="n">
         <v>72007</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AI2" s="1" t="n">
         <v>27616</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>144921</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AK2" s="1" t="n">
         <v>110937</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AL2" s="1" t="n">
         <v>19419</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AM2" s="1" t="n">
         <v>104204</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AN2" s="1" t="n">
         <v>378442</v>
       </c>
-      <c r="AO2" s="0" t="n">
+      <c r="AO2" s="1" t="n">
         <v>936862</v>
       </c>
-      <c r="AP2" s="0" t="n">
+      <c r="AP2" s="1" t="n">
         <v>303007</v>
       </c>
-      <c r="AQ2" s="0" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>29222</v>
       </c>
-      <c r="AR2" s="0" t="n">
+      <c r="AR2" s="1" t="n">
         <v>100837</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>780100</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>39831</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
         <v>695725</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2" s="1" t="n">
         <v>782334</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>628847</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>48133</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2" s="1" t="n">
         <v>204441</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2" s="1" t="n">
         <v>239558</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2" s="1" t="n">
         <v>222057</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2" s="1" t="n">
         <v>187285</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="1" t="n">
         <v>80109</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="1" t="n">
         <v>58754</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="1" t="n">
         <v>149347</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="1" t="n">
         <v>49003</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="1" t="n">
         <v>283937</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2" s="1" t="n">
         <v>370060</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2" s="1" t="n">
         <v>211045</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2" s="1" t="n">
         <v>225136</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2" s="1" t="n">
         <v>228338</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>479431</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2" s="1" t="n">
         <v>426755</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2" s="1" t="n">
         <v>220426</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2" s="1" t="n">
         <v>317748</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2" s="1" t="n">
         <v>104430</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2" s="1" t="n">
         <v>142585</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2" s="1" t="n">
         <v>442582</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2" s="1" t="n">
         <v>286503</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2" s="1" t="n">
         <v>61924</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2" s="1" t="n">
         <v>126596</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2" s="1" t="n">
         <v>137857</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2" s="1" t="n">
         <v>228789</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2" s="1" t="n">
         <v>269579</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2" s="1" t="n">
         <v>598432</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2" s="1" t="n">
         <v>516437</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2" s="1" t="n">
         <v>381494</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2" s="1" t="n">
         <v>28700</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2" s="1" t="n">
         <v>281777</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2" s="1" t="n">
         <v>444257</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2" s="1" t="n">
         <v>14863</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2" s="1" t="n">
         <v>269478</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2" s="1" t="n">
         <v>485232</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2" s="1" t="n">
         <v>9208</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2" s="1" t="n">
         <v>249769</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2" s="1" t="n">
         <v>994061</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2" s="1" t="n">
         <v>512987</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2" s="1" t="n">
         <v>105543</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2" s="1" t="n">
         <v>874415</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2" s="1" t="n">
         <v>305212</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2" s="1" t="n">
         <v>727451</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2" s="1" t="n">
         <v>732255</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2" s="1" t="n">
         <v>43295</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2" s="1" t="n">
         <v>765477</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2" s="1" t="n">
         <v>759870</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
@@ -2256,10 +2261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CS8"/>
+  <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:CS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2559,37 +2564,37 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>193262</v>
+        <v>193243</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>81961</v>
+        <v>81624.3</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>190257</v>
+        <v>190071</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>225434</v>
+        <v>225141</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>230009</v>
+        <v>229272</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>74168</v>
+        <v>74211.4</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>10153</v>
+        <v>10156.1</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>62484</v>
+        <v>62413.2</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>232754</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>24836</v>
+        <v>24745.9</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>18369</v>
+        <v>18386.9</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>56525</v>
@@ -2598,255 +2603,865 @@
         <v>3702</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>50151</v>
+        <v>50327.2</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>61494</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>36159</v>
+        <v>36181.4</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>14657</v>
+        <v>14492.4</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>20307</v>
+        <v>20312.8</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>35333</v>
+        <v>35246.1</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>88519</v>
+        <v>88453.4</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>83742</v>
+        <v>83686.5</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>104781</v>
+        <v>104775</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>33856</v>
+        <v>33785</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>105879</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>56452</v>
+        <v>56335.8</v>
       </c>
       <c r="Z2" s="0" t="n">
         <v>16080</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>52487</v>
+        <v>52753.1</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>54246</v>
+        <v>54216</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>68480</v>
+        <v>68707.7</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>143740</v>
+        <v>143736</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>188657</v>
       </c>
       <c r="AF2" s="0" t="n">
-        <v>94955</v>
+        <v>94948.4</v>
       </c>
       <c r="AG2" s="0" t="n">
-        <v>61066</v>
+        <v>62098</v>
       </c>
       <c r="AH2" s="0" t="n">
-        <v>72007</v>
+        <v>72107.7</v>
       </c>
       <c r="AI2" s="0" t="n">
-        <v>27616</v>
+        <v>27552</v>
       </c>
       <c r="AJ2" s="0" t="n">
-        <v>144921</v>
+        <v>144986</v>
       </c>
       <c r="AK2" s="0" t="n">
-        <v>110937</v>
+        <v>110922</v>
       </c>
       <c r="AL2" s="0" t="n">
-        <v>19419</v>
+        <v>19409.9</v>
       </c>
       <c r="AM2" s="0" t="n">
-        <v>104204</v>
+        <v>104186</v>
       </c>
       <c r="AN2" s="0" t="n">
-        <v>378442</v>
+        <v>378271</v>
       </c>
       <c r="AO2" s="0" t="n">
-        <v>936862</v>
+        <v>937050</v>
       </c>
       <c r="AP2" s="0" t="n">
-        <v>303007</v>
+        <v>302949</v>
       </c>
       <c r="AQ2" s="0" t="n">
         <v>29222</v>
       </c>
       <c r="AR2" s="0" t="n">
+        <v>100634</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>780778</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>40591.1</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>697757</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>782144</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>625047</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>48135.3</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>204362</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>239515</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>221752</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>187248</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>80149.3</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>58744.8</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>148998</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>49137.2</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>283973</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>370622</v>
+      </c>
+      <c r="BI2" s="0" t="n">
+        <v>210676</v>
+      </c>
+      <c r="BJ2" s="0" t="n">
+        <v>227104</v>
+      </c>
+      <c r="BK2" s="0" t="n">
+        <v>227771</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>479452</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>426657</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>220449</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>317749</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>104791</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>142474</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>442327</v>
+      </c>
+      <c r="BS2" s="0" t="n">
+        <v>286155</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>61826.4</v>
+      </c>
+      <c r="BU2" s="0" t="n">
+        <v>127597</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>137823</v>
+      </c>
+      <c r="BW2" s="0" t="n">
+        <v>228964</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>269323</v>
+      </c>
+      <c r="BY2" s="0" t="n">
+        <v>598494</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>516103</v>
+      </c>
+      <c r="CA2" s="0" t="n">
+        <v>383001</v>
+      </c>
+      <c r="CB2" s="0" t="n">
+        <v>28943.7</v>
+      </c>
+      <c r="CC2" s="0" t="n">
+        <v>281656</v>
+      </c>
+      <c r="CD2" s="0" t="n">
+        <v>444553</v>
+      </c>
+      <c r="CE2" s="0" t="n">
+        <v>14754.5</v>
+      </c>
+      <c r="CF2" s="0" t="n">
+        <v>269319</v>
+      </c>
+      <c r="CG2" s="0" t="n">
+        <v>484770</v>
+      </c>
+      <c r="CH2" s="0" t="n">
+        <v>9245.6</v>
+      </c>
+      <c r="CI2" s="0" t="n">
+        <v>250410</v>
+      </c>
+      <c r="CJ2" s="0" t="n">
+        <v>993998</v>
+      </c>
+      <c r="CK2" s="0" t="n">
+        <v>513196</v>
+      </c>
+      <c r="CL2" s="0" t="n">
+        <v>105047</v>
+      </c>
+      <c r="CM2" s="0" t="n">
+        <v>874397</v>
+      </c>
+      <c r="CN2" s="0" t="n">
+        <v>306981</v>
+      </c>
+      <c r="CO2" s="0" t="n">
+        <v>727075</v>
+      </c>
+      <c r="CP2" s="0" t="n">
+        <v>732365</v>
+      </c>
+      <c r="CQ2" s="0" t="n">
+        <v>43456</v>
+      </c>
+      <c r="CR2" s="0" t="n">
+        <v>765621</v>
+      </c>
+      <c r="CS2" s="0" t="n">
+        <v>759900</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CS8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="A2:CS2 F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>193262</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>81961</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>190257</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>225434</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>230009</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>74168</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>10153</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>62484</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>232754</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>24836</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>18369</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>56525</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>3702</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>50151</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>61494</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>36159</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>14657</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>20307</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>35333</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>88519</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>83742</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>104781</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>33856</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>105879</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>56452</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>16080</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>52487</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>54246</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>68480</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>143740</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>188657</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>94955</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>61066</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>72007</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>27616</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>144921</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>110937</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>19419</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>104204</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>378442</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>936862</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>303007</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>29222</v>
+      </c>
+      <c r="AR2" s="1" t="n">
         <v>100837</v>
       </c>
-      <c r="AS2" s="0" t="n">
+      <c r="AS2" s="1" t="n">
         <v>780100</v>
       </c>
-      <c r="AT2" s="0" t="n">
+      <c r="AT2" s="1" t="n">
         <v>39831</v>
       </c>
-      <c r="AU2" s="0" t="n">
+      <c r="AU2" s="1" t="n">
         <v>695725</v>
       </c>
-      <c r="AV2" s="0" t="n">
+      <c r="AV2" s="1" t="n">
         <v>782334</v>
       </c>
-      <c r="AW2" s="0" t="n">
+      <c r="AW2" s="1" t="n">
         <v>628847</v>
       </c>
-      <c r="AX2" s="0" t="n">
+      <c r="AX2" s="1" t="n">
         <v>48133</v>
       </c>
-      <c r="AY2" s="0" t="n">
+      <c r="AY2" s="1" t="n">
         <v>204441</v>
       </c>
-      <c r="AZ2" s="0" t="n">
+      <c r="AZ2" s="1" t="n">
         <v>239558</v>
       </c>
-      <c r="BA2" s="0" t="n">
+      <c r="BA2" s="1" t="n">
         <v>222057</v>
       </c>
-      <c r="BB2" s="0" t="n">
+      <c r="BB2" s="1" t="n">
         <v>187285</v>
       </c>
-      <c r="BC2" s="0" t="n">
+      <c r="BC2" s="1" t="n">
         <v>80109</v>
       </c>
-      <c r="BD2" s="0" t="n">
+      <c r="BD2" s="1" t="n">
         <v>58754</v>
       </c>
-      <c r="BE2" s="0" t="n">
+      <c r="BE2" s="1" t="n">
         <v>149347</v>
       </c>
-      <c r="BF2" s="0" t="n">
+      <c r="BF2" s="1" t="n">
         <v>49003</v>
       </c>
-      <c r="BG2" s="0" t="n">
+      <c r="BG2" s="1" t="n">
         <v>283937</v>
       </c>
-      <c r="BH2" s="0" t="n">
+      <c r="BH2" s="1" t="n">
         <v>370060</v>
       </c>
-      <c r="BI2" s="0" t="n">
+      <c r="BI2" s="1" t="n">
         <v>211045</v>
       </c>
-      <c r="BJ2" s="0" t="n">
+      <c r="BJ2" s="1" t="n">
         <v>225136</v>
       </c>
-      <c r="BK2" s="0" t="n">
+      <c r="BK2" s="1" t="n">
         <v>228338</v>
       </c>
-      <c r="BL2" s="0" t="n">
+      <c r="BL2" s="1" t="n">
         <v>479431</v>
       </c>
-      <c r="BM2" s="0" t="n">
+      <c r="BM2" s="1" t="n">
         <v>426755</v>
       </c>
-      <c r="BN2" s="0" t="n">
+      <c r="BN2" s="1" t="n">
         <v>220426</v>
       </c>
-      <c r="BO2" s="0" t="n">
+      <c r="BO2" s="1" t="n">
         <v>317748</v>
       </c>
-      <c r="BP2" s="0" t="n">
+      <c r="BP2" s="1" t="n">
         <v>104430</v>
       </c>
-      <c r="BQ2" s="0" t="n">
+      <c r="BQ2" s="1" t="n">
         <v>142585</v>
       </c>
-      <c r="BR2" s="0" t="n">
+      <c r="BR2" s="1" t="n">
         <v>442582</v>
       </c>
-      <c r="BS2" s="0" t="n">
+      <c r="BS2" s="1" t="n">
         <v>286503</v>
       </c>
-      <c r="BT2" s="0" t="n">
+      <c r="BT2" s="1" t="n">
         <v>61924</v>
       </c>
-      <c r="BU2" s="0" t="n">
+      <c r="BU2" s="1" t="n">
         <v>126596</v>
       </c>
-      <c r="BV2" s="0" t="n">
+      <c r="BV2" s="1" t="n">
         <v>137857</v>
       </c>
-      <c r="BW2" s="0" t="n">
+      <c r="BW2" s="1" t="n">
         <v>228789</v>
       </c>
-      <c r="BX2" s="0" t="n">
+      <c r="BX2" s="1" t="n">
         <v>269579</v>
       </c>
-      <c r="BY2" s="0" t="n">
+      <c r="BY2" s="1" t="n">
         <v>598432</v>
       </c>
-      <c r="BZ2" s="0" t="n">
+      <c r="BZ2" s="1" t="n">
         <v>516437</v>
       </c>
-      <c r="CA2" s="0" t="n">
+      <c r="CA2" s="1" t="n">
         <v>383377</v>
       </c>
-      <c r="CB2" s="0" t="n">
+      <c r="CB2" s="1" t="n">
         <v>28700</v>
       </c>
-      <c r="CC2" s="0" t="n">
+      <c r="CC2" s="1" t="n">
         <v>281777</v>
       </c>
-      <c r="CD2" s="0" t="n">
+      <c r="CD2" s="1" t="n">
         <v>444257</v>
       </c>
-      <c r="CE2" s="0" t="n">
+      <c r="CE2" s="1" t="n">
         <v>14863</v>
       </c>
-      <c r="CF2" s="0" t="n">
+      <c r="CF2" s="1" t="n">
         <v>269478</v>
       </c>
-      <c r="CG2" s="0" t="n">
+      <c r="CG2" s="1" t="n">
         <v>485232</v>
       </c>
-      <c r="CH2" s="0" t="n">
+      <c r="CH2" s="1" t="n">
         <v>9208</v>
       </c>
-      <c r="CI2" s="0" t="n">
+      <c r="CI2" s="1" t="n">
         <v>249769</v>
       </c>
-      <c r="CJ2" s="0" t="n">
+      <c r="CJ2" s="1" t="n">
         <v>994061</v>
       </c>
-      <c r="CK2" s="0" t="n">
+      <c r="CK2" s="1" t="n">
         <v>512987</v>
       </c>
-      <c r="CL2" s="0" t="n">
+      <c r="CL2" s="1" t="n">
         <v>105543</v>
       </c>
-      <c r="CM2" s="0" t="n">
+      <c r="CM2" s="1" t="n">
         <v>874415</v>
       </c>
-      <c r="CN2" s="0" t="n">
+      <c r="CN2" s="1" t="n">
         <v>305212</v>
       </c>
-      <c r="CO2" s="0" t="n">
+      <c r="CO2" s="1" t="n">
         <v>727451</v>
       </c>
-      <c r="CP2" s="0" t="n">
+      <c r="CP2" s="1" t="n">
         <v>732255</v>
       </c>
-      <c r="CQ2" s="0" t="n">
+      <c r="CQ2" s="1" t="n">
         <v>43295</v>
       </c>
-      <c r="CR2" s="0" t="n">
+      <c r="CR2" s="1" t="n">
         <v>765477</v>
       </c>
-      <c r="CS2" s="0" t="n">
+      <c r="CS2" s="1" t="n">
         <v>759870</v>
       </c>
     </row>
@@ -2856,7 +3471,1227 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CS2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:CS2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>174771</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>43726</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>177780</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>220045</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>224260</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>39495</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4140</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>33991</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>231149</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>15514</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>10392</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>53135</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>45121</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>60609</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>27247</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>6415</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>11057</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>28374</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>78259</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>68618</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>97937</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>18622</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>100463</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>37012</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>6565</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>33885</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>33413</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>52747</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>131463</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>188657</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>72552</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>35598</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>46416</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>12039</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>132575</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>88722</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>10319</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>83682</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>201090</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>923757</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>120155</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>8256</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>27907</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>703481</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>8017</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>590191</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>689717</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>492818</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>16715</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>183543</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>232834</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>207097</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>159583</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>42318</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>23582</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>104398</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>18230</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>204451</v>
+      </c>
+      <c r="BH2" s="0" t="n">
+        <v>304726</v>
+      </c>
+      <c r="BI2" s="0" t="n">
+        <v>127762</v>
+      </c>
+      <c r="BJ2" s="0" t="n">
+        <v>131166</v>
+      </c>
+      <c r="BK2" s="0" t="n">
+        <v>139251</v>
+      </c>
+      <c r="BL2" s="0" t="n">
+        <v>473959</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>401862</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>136931</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>236334</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>41630</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>52066</v>
+      </c>
+      <c r="BR2" s="0" t="n">
+        <v>317112</v>
+      </c>
+      <c r="BS2" s="0" t="n">
+        <v>169341</v>
+      </c>
+      <c r="BT2" s="0" t="n">
+        <v>16392</v>
+      </c>
+      <c r="BU2" s="0" t="n">
+        <v>55607</v>
+      </c>
+      <c r="BV2" s="0" t="n">
+        <v>46164</v>
+      </c>
+      <c r="BW2" s="0" t="n">
+        <v>102600</v>
+      </c>
+      <c r="BX2" s="0" t="n">
+        <v>145676</v>
+      </c>
+      <c r="BY2" s="0" t="n">
+        <v>528288</v>
+      </c>
+      <c r="BZ2" s="0" t="n">
+        <v>422007</v>
+      </c>
+      <c r="CA2" s="0" t="n">
+        <v>288060</v>
+      </c>
+      <c r="CB2" s="0" t="n">
+        <v>5731</v>
+      </c>
+      <c r="CC2" s="0" t="n">
+        <v>182105</v>
+      </c>
+      <c r="CD2" s="0" t="n">
+        <v>374257</v>
+      </c>
+      <c r="CE2" s="0" t="n">
+        <v>2535</v>
+      </c>
+      <c r="CF2" s="0" t="n">
+        <v>147757</v>
+      </c>
+      <c r="CG2" s="0" t="n">
+        <v>438367</v>
+      </c>
+      <c r="CH2" s="0" t="n">
+        <v>1804</v>
+      </c>
+      <c r="CI2" s="0" t="n">
+        <v>131981</v>
+      </c>
+      <c r="CJ2" s="0" t="n">
+        <v>938870</v>
+      </c>
+      <c r="CK2" s="0" t="n">
+        <v>291127</v>
+      </c>
+      <c r="CL2" s="0" t="n">
+        <v>25242</v>
+      </c>
+      <c r="CM2" s="0" t="n">
+        <v>748684</v>
+      </c>
+      <c r="CN2" s="0" t="n">
+        <v>124054</v>
+      </c>
+      <c r="CO2" s="0" t="n">
+        <v>541172</v>
+      </c>
+      <c r="CP2" s="0" t="n">
+        <v>579960</v>
+      </c>
+      <c r="CQ2" s="0" t="n">
+        <v>6794</v>
+      </c>
+      <c r="CR2" s="0" t="n">
+        <v>605729</v>
+      </c>
+      <c r="CS2" s="0" t="n">
+        <v>591676</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CS2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A2:CS2 C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>193167</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>81949</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>190142</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>222008</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>230009</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>74161</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>10153</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>62251</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>232754</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>24710</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>18339</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>56525</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>3702</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>50131</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>61494</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>35692</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>14657</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>20185</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>35325</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>88113</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>83712</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>104480</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>33459</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>105876</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>56383</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>16080</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>52487</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>53807</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>68480</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>143594</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>188657</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>94694</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>60356</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>71912</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>27543</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>144921</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>110704</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>19417</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>103531</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>372021</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>936641</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>302800</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>28973</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>100837</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>779201</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>39831</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>692418</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>778361</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>622107</v>
+      </c>
+      <c r="AX2" s="1" t="n">
+        <v>48107</v>
+      </c>
+      <c r="AY2" s="1" t="n">
+        <v>203418</v>
+      </c>
+      <c r="AZ2" s="1" t="n">
+        <v>238843</v>
+      </c>
+      <c r="BA2" s="1" t="n">
+        <v>219722</v>
+      </c>
+      <c r="BB2" s="1" t="n">
+        <v>186025</v>
+      </c>
+      <c r="BC2" s="1" t="n">
+        <v>80109</v>
+      </c>
+      <c r="BD2" s="1" t="n">
+        <v>58754</v>
+      </c>
+      <c r="BE2" s="1" t="n">
+        <v>147170</v>
+      </c>
+      <c r="BF2" s="1" t="n">
+        <v>49003</v>
+      </c>
+      <c r="BG2" s="1" t="n">
+        <v>281306</v>
+      </c>
+      <c r="BH2" s="1" t="n">
+        <v>365839</v>
+      </c>
+      <c r="BI2" s="1" t="n">
+        <v>210176</v>
+      </c>
+      <c r="BJ2" s="1" t="n">
+        <v>224751</v>
+      </c>
+      <c r="BK2" s="1" t="n">
+        <v>225369</v>
+      </c>
+      <c r="BL2" s="1" t="n">
+        <v>478963</v>
+      </c>
+      <c r="BM2" s="1" t="n">
+        <v>425883</v>
+      </c>
+      <c r="BN2" s="1" t="n">
+        <v>217763</v>
+      </c>
+      <c r="BO2" s="1" t="n">
+        <v>316534</v>
+      </c>
+      <c r="BP2" s="1" t="n">
+        <v>103438</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
+        <v>139839</v>
+      </c>
+      <c r="BR2" s="1" t="n">
+        <v>440630</v>
+      </c>
+      <c r="BS2" s="1" t="n">
+        <v>282781</v>
+      </c>
+      <c r="BT2" s="1" t="n">
+        <v>60985</v>
+      </c>
+      <c r="BU2" s="1" t="n">
+        <v>126145</v>
+      </c>
+      <c r="BV2" s="1" t="n">
+        <v>137690</v>
+      </c>
+      <c r="BW2" s="1" t="n">
+        <v>227583</v>
+      </c>
+      <c r="BX2" s="1" t="n">
+        <v>263331</v>
+      </c>
+      <c r="BY2" s="1" t="n">
+        <v>596190</v>
+      </c>
+      <c r="BZ2" s="1" t="n">
+        <v>514676</v>
+      </c>
+      <c r="CA2" s="1" t="n">
+        <v>377821</v>
+      </c>
+      <c r="CB2" s="1" t="n">
+        <v>28495</v>
+      </c>
+      <c r="CC2" s="1" t="n">
+        <v>275059</v>
+      </c>
+      <c r="CD2" s="1" t="n">
+        <v>442681</v>
+      </c>
+      <c r="CE2" s="1" t="n">
+        <v>14777</v>
+      </c>
+      <c r="CF2" s="1" t="n">
+        <v>264458</v>
+      </c>
+      <c r="CG2" s="1" t="n">
+        <v>482506</v>
+      </c>
+      <c r="CH2" s="1" t="n">
+        <v>9208</v>
+      </c>
+      <c r="CI2" s="1" t="n">
+        <v>245159</v>
+      </c>
+      <c r="CJ2" s="1" t="n">
+        <v>992645</v>
+      </c>
+      <c r="CK2" s="1" t="n">
+        <v>496857</v>
+      </c>
+      <c r="CL2" s="1" t="n">
+        <v>105543</v>
+      </c>
+      <c r="CM2" s="1" t="n">
+        <v>865442</v>
+      </c>
+      <c r="CN2" s="1" t="n">
+        <v>299649</v>
+      </c>
+      <c r="CO2" s="1" t="n">
+        <v>720702</v>
+      </c>
+      <c r="CP2" s="1" t="n">
+        <v>712408</v>
+      </c>
+      <c r="CQ2" s="1" t="n">
+        <v>43295</v>
+      </c>
+      <c r="CR2" s="1" t="n">
+        <v>755370</v>
+      </c>
+      <c r="CS2" s="1" t="n">
+        <v>751153</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
